--- a/Archaeos-Measurements.xlsx
+++ b/Archaeos-Measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandtgibson/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D828A-D7FC-AE48-997A-00D556BB05F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD729C-A95C-FF44-B148-C9820A5A16BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2880" windowWidth="26840" windowHeight="15440" xr2:uid="{583A5FEB-AE4E-B242-A25F-127587735FEC}"/>
   </bookViews>
@@ -83,10 +83,10 @@
     <t>Ostia Diameter (µm)</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Species</t>
   </si>
 </sst>
 </file>
@@ -460,17 +460,17 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
